--- a/biology/Zoologie/Cryptodrassus_hungaricus/Cryptodrassus_hungaricus.xlsx
+++ b/biology/Zoologie/Cryptodrassus_hungaricus/Cryptodrassus_hungaricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptodrassus hungaricus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptodrassus hungaricus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe de la France à la Russie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe de la France à la Russie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 1,9 mm et la femelle 1,9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 1,9 mm et la femelle 1,9 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Zelotes hungaricus par Balogh en 1935. Elle est placée dans le genre Cryptodrassus par Weiss, Szinetár et Samu en 1998[3] qui dans le même temps placent Cryptodrassus pulchellus en synonymie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Zelotes hungaricus par Balogh en 1935. Elle est placée dans le genre Cryptodrassus par Weiss, Szinetár et Samu en 1998 qui dans le même temps placent Cryptodrassus pulchellus en synonymie.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la Hongrie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Balogh, 1935 : A Sashegy pokfaunaja. Budapest, p. 1-60.</t>
         </is>
